--- a/Confourmus/01_Project Planning/U-EASY_Project_Plan_V5.00.xlsx
+++ b/Confourmus/01_Project Planning/U-EASY_Project_Plan_V5.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Sheet" sheetId="1" r:id="rId1"/>
@@ -1125,13 +1125,13 @@
     <t>*CONTENT UPDATE</t>
   </si>
   <si>
-    <t>Mark Valenzona's Laptop, stored in Drive D:\  with the folder name "Confourmus_SC"</t>
-  </si>
-  <si>
-    <t>Mark Valenzona's Laptop, stored in Drive D:\ueasyit140  with the folder name "Confourmus"</t>
-  </si>
-  <si>
     <t>Updated Functionalities, Changes in Documents and Source Codes Location</t>
+  </si>
+  <si>
+    <t>Mark Valenzona's Laptop, stored in Drive C:\Users\mjvalenzona\workspace\  with the folder name "Confourmus_SC"</t>
+  </si>
+  <si>
+    <t>Mark Valenzona's Laptop, stored in Drive D:\ueasyit140\ueasyit140  with the folder name "Confourmus"</t>
   </si>
 </sst>
 </file>
@@ -3516,6 +3516,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3531,6 +3545,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3587,6 +3604,9 @@
     <xf numFmtId="0" fontId="79" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="102" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="101" fillId="2" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3619,9 +3639,6 @@
     </xf>
     <xf numFmtId="49" fontId="103" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="102" fillId="2" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="104" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3666,23 +3683,6 @@
     </xf>
     <xf numFmtId="0" fontId="131" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4012,7 +4012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4086,10 +4086,10 @@
       <c r="C6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="133" t="s">
+      <c r="D6" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="132"/>
+      <c r="E6" s="138"/>
       <c r="F6" s="96" t="s">
         <v>6</v>
       </c>
@@ -4105,10 +4105,10 @@
       <c r="C7" s="94">
         <v>41838</v>
       </c>
-      <c r="D7" s="131" t="s">
+      <c r="D7" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="132"/>
+      <c r="E7" s="138"/>
       <c r="F7" s="97" t="s">
         <v>9</v>
       </c>
@@ -4121,13 +4121,13 @@
       <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="197" t="s">
+      <c r="C8" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="132"/>
+      <c r="E8" s="138"/>
       <c r="F8" s="126" t="s">
         <v>9</v>
       </c>
@@ -4143,10 +4143,10 @@
       <c r="C9" s="95">
         <v>41870</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="140" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="132"/>
+      <c r="E9" s="138"/>
       <c r="F9" s="126" t="s">
         <v>9</v>
       </c>
@@ -4162,10 +4162,10 @@
       <c r="C10" s="95">
         <v>41900</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="141" t="s">
         <v>321</v>
       </c>
-      <c r="E10" s="136"/>
+      <c r="E10" s="142"/>
       <c r="F10" s="126" t="s">
         <v>9</v>
       </c>
@@ -4178,13 +4178,13 @@
       <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="196">
+      <c r="C11" s="135">
         <v>42069</v>
       </c>
-      <c r="D11" s="198" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="132"/>
+      <c r="D11" s="143" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="138"/>
       <c r="F11" s="126" t="s">
         <v>9</v>
       </c>
@@ -4196,8 +4196,8 @@
       <c r="A12" s="1"/>
       <c r="B12" s="7"/>
       <c r="C12" s="91"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
       <c r="F12" s="92"/>
       <c r="G12" s="7"/>
     </row>
@@ -4420,10 +4420,10 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="138" t="s">
+      <c r="B7" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="132"/>
+      <c r="C7" s="138"/>
       <c r="D7" s="98" t="s">
         <v>20</v>
       </c>
@@ -4441,8 +4441,8 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="99" t="s">
         <v>21</v>
       </c>
@@ -4460,8 +4460,8 @@
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="100" t="s">
         <v>22</v>
       </c>
@@ -4479,8 +4479,8 @@
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="101" t="s">
         <v>23</v>
       </c>
@@ -4498,8 +4498,8 @@
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="100" t="s">
         <v>24</v>
       </c>
@@ -4517,8 +4517,8 @@
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="100" t="s">
         <v>25</v>
       </c>
@@ -4536,8 +4536,8 @@
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="100" t="s">
         <v>26</v>
       </c>
@@ -4555,8 +4555,8 @@
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="100" t="s">
         <v>27</v>
       </c>
@@ -4574,8 +4574,8 @@
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="102" t="s">
         <v>28</v>
       </c>
@@ -4597,8 +4597,8 @@
         <v>29</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4616,10 +4616,10 @@
       <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="141" t="s">
+      <c r="D17" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="142"/>
+      <c r="E17" s="149"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4694,8 +4694,8 @@
       <c r="A21" s="1"/>
       <c r="B21" s="21"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="142"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="149"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4845,23 +4845,23 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" s="130" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="192"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="193"/>
-      <c r="E29" s="195" t="s">
+      <c r="A29" s="131"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="134" t="s">
         <v>322</v>
       </c>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="192"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="192"/>
-      <c r="O29" s="192"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="131"/>
+      <c r="O29" s="131"/>
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="1"/>
@@ -5248,11 +5248,11 @@
       <c r="B6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="149"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
@@ -5284,11 +5284,11 @@
       <c r="B9" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="142"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="149"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
@@ -5296,11 +5296,11 @@
       <c r="B10" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
@@ -5326,11 +5326,11 @@
       <c r="B13" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
@@ -5353,10 +5353,10 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="145"/>
+      <c r="C16" s="152"/>
       <c r="D16" s="32" t="s">
         <v>75</v>
       </c>
@@ -5458,8 +5458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5702,10 +5702,10 @@
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="166" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -5727,8 +5727,8 @@
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="145"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="152"/>
       <c r="D12" s="7" t="s">
         <v>116</v>
       </c>
@@ -5748,8 +5748,8 @@
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="145"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="152"/>
       <c r="D13" s="18" t="s">
         <v>117</v>
       </c>
@@ -5769,8 +5769,8 @@
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="145"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="152"/>
       <c r="D14" s="18" t="s">
         <v>118</v>
       </c>
@@ -5874,10 +5874,10 @@
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="145"/>
+      <c r="C19" s="152"/>
       <c r="D19" s="52" t="s">
         <v>124</v>
       </c>
@@ -5936,12 +5936,12 @@
       <c r="A21" s="1"/>
       <c r="B21" s="58"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="161" t="s">
+      <c r="D21" s="168" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -5986,12 +5986,12 @@
       <c r="A23" s="1"/>
       <c r="B23" s="58"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="155" t="s">
+      <c r="D23" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -6038,12 +6038,12 @@
       <c r="A25" s="1"/>
       <c r="B25" s="58"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="155" t="s">
+      <c r="D25" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -6090,12 +6090,12 @@
       <c r="A27" s="1"/>
       <c r="B27" s="58"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="155" t="s">
+      <c r="D27" s="162" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -6142,12 +6142,12 @@
       <c r="A29" s="1"/>
       <c r="B29" s="58"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="155" t="s">
+      <c r="D29" s="162" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -6194,12 +6194,12 @@
       <c r="A31" s="1"/>
       <c r="B31" s="58"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="155" t="s">
+      <c r="D31" s="162" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -6246,12 +6246,12 @@
       <c r="A33" s="1"/>
       <c r="B33" s="58"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="155" t="s">
+      <c r="D33" s="162" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -6298,12 +6298,12 @@
       <c r="A35" s="1"/>
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
-      <c r="D35" s="155" t="s">
+      <c r="D35" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -6731,7 +6731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
@@ -6836,10 +6836,10 @@
       <c r="B6" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="168" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" s="132"/>
+      <c r="C6" s="176" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="138"/>
       <c r="E6" s="74"/>
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
@@ -6856,10 +6856,10 @@
       <c r="B7" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="177" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="132"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="74"/>
       <c r="F7" s="70"/>
       <c r="G7" s="70"/>
@@ -6873,13 +6873,13 @@
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1">
       <c r="A8" s="70"/>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="171" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="170" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="149"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="74"/>
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
@@ -6893,11 +6893,11 @@
     </row>
     <row r="9" spans="1:14" ht="12.75" customHeight="1">
       <c r="A9" s="70"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="175" t="s">
+      <c r="B9" s="172"/>
+      <c r="C9" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="D9" s="142"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="74"/>
       <c r="F9" s="70"/>
       <c r="G9" s="70"/>
@@ -6911,11 +6911,11 @@
     </row>
     <row r="10" spans="1:14" ht="12.75" customHeight="1">
       <c r="A10" s="70"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="175" t="s">
+      <c r="B10" s="172"/>
+      <c r="C10" s="169" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="142"/>
+      <c r="D10" s="149"/>
       <c r="E10" s="74"/>
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
@@ -6929,11 +6929,11 @@
     </row>
     <row r="11" spans="1:14" ht="12.75" customHeight="1">
       <c r="A11" s="70"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="174" t="s">
+      <c r="B11" s="172"/>
+      <c r="C11" s="182" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="142"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="74"/>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
@@ -6947,11 +6947,11 @@
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1">
       <c r="A12" s="70"/>
-      <c r="B12" s="164"/>
-      <c r="C12" s="173" t="s">
+      <c r="B12" s="172"/>
+      <c r="C12" s="181" t="s">
         <v>211</v>
       </c>
-      <c r="D12" s="172"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="74"/>
       <c r="F12" s="70"/>
       <c r="G12" s="70"/>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="70"/>
-      <c r="B13" s="167" t="s">
+      <c r="B13" s="175" t="s">
         <v>212</v>
       </c>
       <c r="C13" s="110" t="s">
@@ -6987,7 +6987,7 @@
     </row>
     <row r="14" spans="1:14" ht="46.5" customHeight="1">
       <c r="A14" s="70"/>
-      <c r="B14" s="164"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="111"/>
       <c r="D14" s="78" t="s">
         <v>215</v>
@@ -7005,7 +7005,7 @@
     </row>
     <row r="15" spans="1:14" ht="72" customHeight="1">
       <c r="A15" s="70"/>
-      <c r="B15" s="164"/>
+      <c r="B15" s="172"/>
       <c r="C15" s="112" t="s">
         <v>216</v>
       </c>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="70"/>
-      <c r="B16" s="165" t="s">
+      <c r="B16" s="173" t="s">
         <v>218</v>
       </c>
       <c r="C16" s="113" t="s">
@@ -7045,7 +7045,7 @@
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="70"/>
-      <c r="B17" s="164"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="115"/>
       <c r="D17" s="116" t="s">
         <v>220</v>
@@ -7063,11 +7063,11 @@
     </row>
     <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="70"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="170" t="s">
+      <c r="B18" s="172"/>
+      <c r="C18" s="178" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="142"/>
+      <c r="D18" s="149"/>
       <c r="E18" s="70"/>
       <c r="F18" s="70"/>
       <c r="G18" s="70"/>
@@ -7081,7 +7081,7 @@
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="70"/>
-      <c r="B19" s="164"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="117"/>
       <c r="D19" s="118" t="s">
         <v>222</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="70"/>
-      <c r="B20" s="164"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="117"/>
       <c r="D20" s="118" t="s">
         <v>223</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="70"/>
-      <c r="B21" s="164"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="117" t="s">
         <v>224</v>
       </c>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="70"/>
-      <c r="B22" s="164"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="117"/>
       <c r="D22" s="118" t="s">
         <v>225</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="70"/>
-      <c r="B23" s="164"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="117"/>
       <c r="D23" s="118" t="s">
         <v>226</v>
@@ -7171,11 +7171,11 @@
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="70"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="170" t="s">
+      <c r="B24" s="172"/>
+      <c r="C24" s="178" t="s">
         <v>227</v>
       </c>
-      <c r="D24" s="142"/>
+      <c r="D24" s="149"/>
       <c r="E24" s="70"/>
       <c r="F24" s="70"/>
       <c r="G24" s="70"/>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="70"/>
-      <c r="B25" s="164"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="117"/>
       <c r="D25" s="118" t="s">
         <v>228</v>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="70"/>
-      <c r="B26" s="164"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="117"/>
       <c r="D26" s="118" t="s">
         <v>229</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="70"/>
-      <c r="B27" s="164"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="117"/>
       <c r="D27" s="118" t="s">
         <v>230</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="70"/>
-      <c r="B28" s="164"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="117"/>
       <c r="D28" s="118" t="s">
         <v>231</v>
@@ -7261,11 +7261,11 @@
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="70"/>
-      <c r="B29" s="164"/>
-      <c r="C29" s="170" t="s">
+      <c r="B29" s="172"/>
+      <c r="C29" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="142"/>
+      <c r="D29" s="149"/>
       <c r="E29" s="70"/>
       <c r="F29" s="70"/>
       <c r="G29" s="70"/>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="70"/>
-      <c r="B30" s="164"/>
+      <c r="B30" s="172"/>
       <c r="C30" s="117"/>
       <c r="D30" s="118" t="s">
         <v>233</v>
@@ -7297,7 +7297,7 @@
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="70"/>
-      <c r="B31" s="164"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="117"/>
       <c r="D31" s="118" t="s">
         <v>234</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="70"/>
-      <c r="B32" s="164"/>
+      <c r="B32" s="172"/>
       <c r="C32" s="117"/>
       <c r="D32" s="118" t="s">
         <v>235</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="70"/>
-      <c r="B33" s="164"/>
+      <c r="B33" s="172"/>
       <c r="C33" s="117"/>
       <c r="D33" s="118" t="s">
         <v>236</v>
@@ -7351,11 +7351,11 @@
     </row>
     <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="70"/>
-      <c r="B34" s="164"/>
-      <c r="C34" s="170" t="s">
+      <c r="B34" s="172"/>
+      <c r="C34" s="178" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="142"/>
+      <c r="D34" s="149"/>
       <c r="E34" s="70"/>
       <c r="F34" s="70"/>
       <c r="G34" s="70"/>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="70"/>
-      <c r="B35" s="164"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="117"/>
       <c r="D35" s="118" t="s">
         <v>238</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="70"/>
-      <c r="B36" s="164"/>
+      <c r="B36" s="172"/>
       <c r="C36" s="117"/>
       <c r="D36" s="118" t="s">
         <v>239</v>
@@ -7405,7 +7405,7 @@
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="70"/>
-      <c r="B37" s="164"/>
+      <c r="B37" s="172"/>
       <c r="C37" s="117"/>
       <c r="D37" s="118" t="s">
         <v>240</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="70"/>
-      <c r="B38" s="164"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="117"/>
       <c r="D38" s="118" t="s">
         <v>241</v>
@@ -7441,11 +7441,11 @@
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="70"/>
-      <c r="B39" s="164"/>
-      <c r="C39" s="170" t="s">
+      <c r="B39" s="172"/>
+      <c r="C39" s="178" t="s">
         <v>242</v>
       </c>
-      <c r="D39" s="142"/>
+      <c r="D39" s="149"/>
       <c r="E39" s="70"/>
       <c r="F39" s="70"/>
       <c r="G39" s="70"/>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="70"/>
-      <c r="B40" s="164"/>
+      <c r="B40" s="172"/>
       <c r="C40" s="117"/>
       <c r="D40" s="118" t="s">
         <v>243</v>
@@ -7477,7 +7477,7 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1">
       <c r="A41" s="70"/>
-      <c r="B41" s="164"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="117"/>
       <c r="D41" s="118" t="s">
         <v>244</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="70"/>
-      <c r="B42" s="164"/>
+      <c r="B42" s="172"/>
       <c r="C42" s="117"/>
       <c r="D42" s="118" t="s">
         <v>245</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="70"/>
-      <c r="B43" s="164"/>
+      <c r="B43" s="172"/>
       <c r="C43" s="117" t="s">
         <v>246</v>
       </c>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="70"/>
-      <c r="B44" s="164"/>
+      <c r="B44" s="172"/>
       <c r="C44" s="117"/>
       <c r="D44" s="118" t="s">
         <v>247</v>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="70"/>
-      <c r="B45" s="164"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="115"/>
       <c r="D45" s="116" t="s">
         <v>248</v>
@@ -7567,7 +7567,7 @@
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="70"/>
-      <c r="B46" s="164"/>
+      <c r="B46" s="172"/>
       <c r="C46" s="115"/>
       <c r="D46" s="116" t="s">
         <v>249</v>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="70"/>
-      <c r="B47" s="164"/>
+      <c r="B47" s="172"/>
       <c r="C47" s="115"/>
       <c r="D47" s="116" t="s">
         <v>250</v>
@@ -7603,11 +7603,11 @@
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="70"/>
-      <c r="B48" s="164"/>
-      <c r="C48" s="170" t="s">
+      <c r="B48" s="172"/>
+      <c r="C48" s="178" t="s">
         <v>251</v>
       </c>
-      <c r="D48" s="142"/>
+      <c r="D48" s="149"/>
       <c r="E48" s="70"/>
       <c r="F48" s="70"/>
       <c r="G48" s="70"/>
@@ -7621,7 +7621,7 @@
     </row>
     <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="164"/>
+      <c r="B49" s="172"/>
       <c r="C49" s="119"/>
       <c r="D49" s="116" t="s">
         <v>252</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="70"/>
-      <c r="B50" s="164"/>
+      <c r="B50" s="172"/>
       <c r="C50" s="120"/>
       <c r="D50" s="121" t="s">
         <v>253</v>
@@ -7657,7 +7657,7 @@
     </row>
     <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="70"/>
-      <c r="B51" s="164"/>
+      <c r="B51" s="172"/>
       <c r="C51" s="122"/>
       <c r="D51" s="123" t="s">
         <v>254</v>
@@ -7675,11 +7675,11 @@
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="70"/>
-      <c r="B52" s="166"/>
-      <c r="C52" s="171" t="s">
+      <c r="B52" s="174"/>
+      <c r="C52" s="179" t="s">
         <v>255</v>
       </c>
-      <c r="D52" s="172"/>
+      <c r="D52" s="180"/>
       <c r="E52" s="70"/>
       <c r="F52" s="70"/>
       <c r="G52" s="70"/>
@@ -7897,11 +7897,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B16:B52"/>
-    <mergeCell ref="B13:B15"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C48:D48"/>
@@ -7914,6 +7909,11 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B16:B52"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7923,7 +7923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -8026,10 +8028,10 @@
       <c r="B6" s="109" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="168" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="132"/>
+      <c r="C6" s="176" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" s="138"/>
       <c r="E6" s="74"/>
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
@@ -8046,10 +8048,10 @@
       <c r="B7" s="109" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="186" t="s">
         <v>275</v>
       </c>
-      <c r="D7" s="132"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="74"/>
       <c r="F7" s="70"/>
       <c r="G7" s="70"/>
@@ -8063,13 +8065,13 @@
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1">
       <c r="A8" s="70"/>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="187" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="186" t="s">
+      <c r="C8" s="193" t="s">
         <v>277</v>
       </c>
-      <c r="D8" s="149"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="74"/>
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
@@ -8083,11 +8085,11 @@
     </row>
     <row r="9" spans="1:14" ht="12.75" customHeight="1">
       <c r="A9" s="70"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="184" t="s">
+      <c r="B9" s="184"/>
+      <c r="C9" s="191" t="s">
         <v>278</v>
       </c>
-      <c r="D9" s="142"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="74"/>
       <c r="F9" s="70"/>
       <c r="G9" s="70"/>
@@ -8101,11 +8103,11 @@
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="70"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="185" t="s">
+      <c r="B10" s="184"/>
+      <c r="C10" s="192" t="s">
         <v>279</v>
       </c>
-      <c r="D10" s="142"/>
+      <c r="D10" s="149"/>
       <c r="E10" s="74"/>
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
@@ -8119,11 +8121,11 @@
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="70"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="181" t="s">
+      <c r="B11" s="184"/>
+      <c r="C11" s="188" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="172"/>
+      <c r="D11" s="180"/>
       <c r="E11" s="74"/>
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
@@ -8137,7 +8139,7 @@
     </row>
     <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="70"/>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="183" t="s">
         <v>281</v>
       </c>
       <c r="C12" s="75" t="s">
@@ -8159,7 +8161,7 @@
     </row>
     <row r="13" spans="1:14" ht="46.5" customHeight="1">
       <c r="A13" s="70"/>
-      <c r="B13" s="177"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="77"/>
       <c r="D13" s="78" t="s">
         <v>284</v>
@@ -8177,7 +8179,7 @@
     </row>
     <row r="14" spans="1:14" ht="72" customHeight="1">
       <c r="A14" s="70"/>
-      <c r="B14" s="177"/>
+      <c r="B14" s="184"/>
       <c r="C14" s="79" t="s">
         <v>285</v>
       </c>
@@ -8197,13 +8199,13 @@
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="70"/>
-      <c r="B15" s="176" t="s">
+      <c r="B15" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="187" t="s">
+      <c r="C15" s="194" t="s">
         <v>288</v>
       </c>
-      <c r="D15" s="140"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="70"/>
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
@@ -8217,11 +8219,11 @@
     </row>
     <row r="16" spans="1:14" ht="12.75" customHeight="1">
       <c r="A16" s="70"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="182" t="s">
+      <c r="B16" s="184"/>
+      <c r="C16" s="189" t="s">
         <v>289</v>
       </c>
-      <c r="D16" s="142"/>
+      <c r="D16" s="149"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="G16" s="70"/>
@@ -8235,9 +8237,9 @@
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="70"/>
-      <c r="B17" s="178"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="172"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="70"/>
       <c r="F17" s="70"/>
       <c r="G17" s="70"/>
@@ -8590,10 +8592,10 @@
       <c r="B7" s="124" t="s">
         <v>307</v>
       </c>
-      <c r="C7" s="189" t="s">
+      <c r="C7" s="196" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="132"/>
+      <c r="D7" s="138"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -8609,10 +8611,10 @@
       <c r="B8" s="124" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C8" s="197" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="132"/>
+      <c r="D8" s="138"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8628,10 +8630,10 @@
       <c r="B9" s="124" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="188" t="s">
+      <c r="C9" s="195" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="132"/>
+      <c r="D9" s="138"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8647,10 +8649,10 @@
       <c r="B10" s="125" t="s">
         <v>313</v>
       </c>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="198" t="s">
         <v>314</v>
       </c>
-      <c r="D10" s="132"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -8666,10 +8668,10 @@
       <c r="B11" s="89" t="s">
         <v>315</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="195" t="s">
         <v>316</v>
       </c>
-      <c r="D11" s="132"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
